--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105420.7106445709</v>
+        <v>19094178.54953961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105420.7106445709</v>
+        <v>19094178.54953961</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56190.40536735992</v>
+        <v>7080879.036458201</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56190.40536735992</v>
+        <v>7080879.036458201</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494181354.585911</v>
+        <v>53095296.68074296</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11799.81613113573</v>
+        <v>1187030.11726047</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22893.75065555419</v>
+        <v>2267477.398368973</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33982.45851330597</v>
+        <v>3347127.612810808</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45732.54044491778</v>
+        <v>4334884.122237696</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56794.70800437623</v>
+        <v>5417970.911600707</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67839.95745593664</v>
+        <v>6503216.932840688</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78885.20690749706</v>
+        <v>7588462.954080664</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89930.45635905748</v>
+        <v>8673708.975320639</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101738.9707480746</v>
+        <v>9650412.638464496</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112495.7471076462</v>
+        <v>10769805.4132827</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122731.9901571216</v>
+        <v>11881732.30617624</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133238.1811347485</v>
+        <v>13036860.07640127</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>143789.6449180789</v>
+        <v>14191987.8466263</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155694.1025067745</v>
+        <v>15123257.09492081</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170747.7558183461</v>
+        <v>15717023.88690938</v>
       </c>
     </row>
   </sheetData>
